--- a/data/case1/18/Q2_14.xlsx
+++ b/data/case1/18/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.18950838845779572</v>
+        <v>0.22594800312889163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999883295629</v>
+        <v>-0.0059999999889441824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999895101723</v>
+        <v>-0.0039999999897428751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999807736089</v>
+        <v>-0.0079999999816564582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999888774553</v>
+        <v>-0.0029999999893730589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.012542098974632765</v>
+        <v>-0.0019999999885804698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999723139332</v>
+        <v>-0.0099999999742639289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999717010901</v>
+        <v>-0.0099999999735231881</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999859883211</v>
+        <v>-0.001999999986689982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999854132255</v>
+        <v>-0.0019999999858768547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999835226276</v>
+        <v>-0.0029999999840297775</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999825071626</v>
+        <v>-0.0034999999829561368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999821154759</v>
+        <v>0.0015344482184360686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999973645977</v>
+        <v>-0.0079999999740127947</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998678246271</v>
+        <v>-0.00099999998611544072</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999850348615</v>
+        <v>-0.0019999999841813221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.011367210834742458</v>
+        <v>-0.0019999999839148686</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999815227838</v>
+        <v>-0.0039999999803264075</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999920805607</v>
+        <v>-0.0039999999923918672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999914943629</v>
+        <v>-0.0039999999919562157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999914011042</v>
+        <v>-0.0039999999918709506</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999913327144</v>
+        <v>-0.003999999991803449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999870271594</v>
+        <v>-0.011533613528118991</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999957874159</v>
+        <v>-0.054464233439303733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999957325265</v>
+        <v>-0.019999999958019821</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999863251077</v>
+        <v>-0.0024999999874779633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999859072197</v>
+        <v>-0.0024999999871160306</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.001999999985017098</v>
+        <v>-0.0019999999865936147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999744245756</v>
+        <v>-0.0069999999768493026</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0086560050375514841</v>
+        <v>-0.059999999883495025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999721161998</v>
+        <v>-0.0069999999770953281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999660997929</v>
+        <v>0.036828604044591984</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.029009570257136019</v>
+        <v>-0.0039999999825788279</v>
       </c>
     </row>
   </sheetData>
